--- a/translation_ws/translation_sheet.xlsx
+++ b/translation_ws/translation_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BaiduNetdiskDownload\prj\translation_ws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA648C0-7EB7-4C76-9EA5-6DDD7F3CE8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586E9A2B-FB61-4BF1-B158-4D6C038668E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unit_description" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -145,6 +145,128 @@
   </si>
   <si>
     <t>你，掌握变化之力的上古种族末裔。虽然你的原始形态稍显脆弱，但你的智慧足以玩弄侵略者于股掌之间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_UNIT_DESCRIPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_ACTION_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approach_DES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross Attack_DES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross Move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字打击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross Move_DES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向十字方向移动一格。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X Move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斜向移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X Move_DES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向斜十字方向移动一格。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斜向打击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向斜十字方向邻近的一格发动一次攻击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对上下左右邻近的一格发动一次攻击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X Attack_DES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Free Move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Free Move_DES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字逼近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动到周围八个格子中的一个。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Align or Shoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Align or Shoot_DES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对齐/射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向十字方向移动一格，缩短与目标之间的距离。
+优先缩短纵横距离中较长者。若纵横距离相等，优先横向移动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向十字方向移动一格，尝试与目标处于同一行或列。
+优先缩短纵横距离中较短者。若已对齐且无阻碍，则射击目标。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,12 +290,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -188,12 +316,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -474,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -499,116 +628,259 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="57" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/translation_ws/translation_sheet.xlsx
+++ b/translation_ws/translation_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BaiduNetdiskDownload\prj\translation_ws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{586E9A2B-FB61-4BF1-B158-4D6C038668E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29C11DD-6AF4-47B1-9AF3-3F0E37932CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unit_description" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="97">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,20 +59,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>势大力沉的长弓为他们提供稳定而致命的火力。相比近距离的殊死搏斗，这些使用弓的家伙们更加难缠，他们倾向于在远处冷静瞄准，占据战场优势。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果你在地城中遇见了弓箭手，要么迅速远离，让他们无从射击，要么快速接近，在他们拉满弓之前解决他们。
-那些训练有素的弓手，以弓弦催动箭矢，割开空气，只留下一阵急促的暴鸣和敌人的尸体。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SCOUT_DES_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斥候的人员组成非常复杂，小偷、罪犯、杀手等掺杂其中，拿钱办事的冒险者有很多，斥候们则是其中的代表。</t>
   </si>
   <si>
     <t>SCOUT_DES_2</t>
@@ -113,160 +101,317 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SLIME_DES_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLIME_DES_2</t>
+  </si>
+  <si>
+    <t>森林、山地、平原、洞穴…你几乎可以在任何环境里找到这种近似透明的怪物，他们威胁甚低，只能稍稍腐蚀装甲和武器。大部分人对它的威胁嗤之以鼻。但只要利用好史莱姆的能力，就能让他们为自己的傲慢付出代价。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变身为灵活爬行的史莱姆，但是暂时失去攻击能力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHANGELING_DES_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHANGELING_DES_2</t>
+  </si>
+  <si>
+    <t>你，掌握变化之力的上古种族末裔。虽然你的原始形态稍显脆弱，但你的智慧足以玩弄侵略者于股掌之间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_UNIT_DESCRIPTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_ACTION_INFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Approach_DES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross Attack_DES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross Move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字打击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross Move_DES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向十字方向移动一格。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X Move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斜向移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X Move_DES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向斜十字方向移动一格。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X Attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斜向打击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向斜十字方向邻近的一格发动一次攻击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对上下左右邻近的一格发动一次攻击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X Attack_DES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Free Move</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Free Move_DES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自由移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字逼近</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动到周围八个格子中的一个。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Align or Shoot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Align or Shoot_DES</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对齐/射击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_UNIT_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>士兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓箭手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斥候</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变形怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌龟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝙蝠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史莱姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soldier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Archer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Changeling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tortoise</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字移动一格，缩短与目标的距离。优先缩短纵横距离中较长者。若纵横距离相等，优先横向移动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字移动一格，尝试与目标处于同一行或列。优先缩短纵横距离中较短者。若已对齐且无阻碍，则射击目标。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In a foggy and perlious dungeon, any life security measures won't lose reception. Many newbie soldiers believe armor means everything in a battle, while battle-hardened veterans know the fact that heavy armor can rather be their deadly coffin. 
+In most cases, it is not the armor, but the survival experience forged through countless life-and-death moments that is the only thing capable of making death miss its mark.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>势大力沉的长弓为他们提供稳定而致命的火力。相比近距离的搏斗者，这些使用弓的家伙们更加难缠，他们倾向于在远处冷静瞄准，占据战场优势。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Powerful longbows provide them with critical firepower. Troublesome as archers are, they tend to calmly aim from a distance, domaining the battlefield.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你在地城中遇见了弓箭手，要么迅速远离，让他们无从射击，要么快速接近，在他们拉满弓之前解决他们。
+当弓弦颤动，箭矢割开空气，你的丧钟也将随之奏响。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If you encounter archers in the dungeon, either quickly distance yourself to evade, or close the gap fast and knock off them before they fully draw their bows.  
+When the bowstring trembles and the arrow cuts through the air, your death knell will follow. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斥候的人员组成非常复杂，小偷、罪犯、杀手等掺杂其中。拿钱办事的冒险者有很多，斥候们则是其中的代表。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Though their armors are nothing to you, they can be a great threat once united. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Thieves, criminals, assassins... These adventurers have various backgrounds, but they all serves as scouts, swift and dangerous in action. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transforming into a turtle form with a tough shell, capable of withstanding one instance of damage.</t>
+  </si>
+  <si>
+    <t>There are always people who comment on the turtle's slow speed on land, but if you ask me, when you have a shell tough enough, why would you need agile limbs?</t>
+  </si>
+  <si>
+    <t>Transforming into a fleeting bat form, allowing for diagonal movement and attacks.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>洞穴里有成千上万只蝙蝠，这再正常不过了，谁会特别注意这一只呢？</t>
-  </si>
-  <si>
-    <t>SLIME_DES_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLIME_DES_2</t>
-  </si>
-  <si>
-    <t>森林、山地、平原、洞穴…你几乎可以在任何环境里找到这种近似透明的怪物，他们威胁甚低，只能稍稍腐蚀装甲和武器。大部分人对它的威胁嗤之以鼻。但只要利用好史莱姆的能力，就能让他们为自己的傲慢付出代价。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>变身为灵活爬行的史莱姆，但是暂时失去攻击能力。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHANGELING_DES_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHANGELING_DES_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There are thousands of bats in the cave, which is completely normal. Who would pay special attention to just one?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transforming into a nimble, crawling slime, but temporarily losing the ability to attack.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forests, mountains, plains, caves... You can find these nearly transparent creatures in almost any environment. Their threat is minimal, only capable of slightly corroding armor and weapons. Most people scoff at the danger they pose. But if one knows how to use a slime’s abilities wisely, they can make others pay for their arrogance.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You, the descendant of an ancient race that commands the power of transformation. Though your original form is fragile, you have the wisdom to toy with invaders at your will.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Move one square in a cross direction. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack a surrounding square in a cross direction. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move one square in a diagonal cross direction.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack a surrounding square in a diagonal cross direction. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Move to any of the surrounding 8 squares. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move one square in a cross direction, attempting to align with the target in the same row or column(prefered).  If already aligned and with no obstruction, shoot at the target.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Without heavy armor of soldiers or long range of archers, scouts rely on their exceptional speed of movement as their advantage, making decisiveness in battle as their foremost principle. Stealthy, swift, and lethal, they maintain an efficient operational strategy, moving around the group, ready to act in an instant upon spotting their target.  
+The scout will watch your every move, waiting for the right moment to stab you.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>拟态魔、换形怪、窃皮者，世间对你有着众多称呼。
-你的故事流传于不同民族与不同地区的人群之中，诉说着潜藏在暗影里的阴谋。父母用你来吓唬调皮的孩子，亡命之徒将你视作赏金的目标，疯人相信你代表着死亡与屠戮，但更多的人，则只将你当作是一句过于幼稚的玩笑，一阵随风划过的不安…
+你的故事流传于不同民族与不同地区的人群之中，诉说着潜藏在暗影里的阴谋。父母用你来吓唬调皮的孩子，亡命之徒将你视作赏金的目标，疯人相信你代表着死亡与屠戮，但更多的人，则只将你当作是一句过于幼稚的玩笑. 
 但只有极少数人知晓，在所有这些虚妄之言的背后，你，是何种千变万化的存在。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你，掌握变化之力的上古种族末裔。虽然你的原始形态稍显脆弱，但你的智慧足以玩弄侵略者于股掌之间。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_UNIT_DESCRIPTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>_ACTION_INFO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Approach</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cross Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Approach_DES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cross Attack_DES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cross Move</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十字移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十字打击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cross Move_DES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向十字方向移动一格。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X Move</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斜向移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X Move_DES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向斜十字方向移动一格。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X Attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斜向打击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向斜十字方向邻近的一格发动一次攻击。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对上下左右邻近的一格发动一次攻击。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X Attack_DES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Free Move</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Free Move_DES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自由移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十字逼近</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动到周围八个格子中的一个。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Align or Shoot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Align or Shoot_DES</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对齐/射击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向十字方向移动一格，缩短与目标之间的距离。
-优先缩短纵横距离中较长者。若纵横距离相等，优先横向移动。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>向十字方向移动一格，尝试与目标处于同一行或列。
-优先缩短纵横距离中较短者。若已对齐且无阻碍，则射击目标。</t>
+    <t>Mimic demons, shape-shifters, skin thieves...Your names vary and spreads all over the world, telling of the hidden conspiracies. Parents use you to frighten mischievous children, outlaws see you as exchange for bounty, the mad believe you bringer of the end, but most people simply dismiss you as a fiction. But only a very few know the truth—that behind all these false tales, you are an existence of endless transformation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Move one square in a cross direction. Prioritize shortening the longer of the H(prefered) or V distance to the target. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -318,11 +463,15 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -603,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -628,259 +777,404 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>31</v>
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>56</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>57</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>58</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>60</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="57" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>45</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>60</v>
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/translation_ws/translation_sheet.xlsx
+++ b/translation_ws/translation_sheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BaiduNetdiskDownload\prj\translation_ws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29C11DD-6AF4-47B1-9AF3-3F0E37932CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E57F897-E319-4C3D-B521-6484CA6C6DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unit_description" sheetId="1" r:id="rId1"/>
+    <sheet name="cutscene_text" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="148">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,6 +413,205 @@
   </si>
   <si>
     <t xml:space="preserve">Move one square in a cross direction. Prioritize shortening the longer of the H(prefered) or V distance to the target. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的族裔灭亡了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruin, had come to your bloodline. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身受重伤又漫无目的, 你, 你们种族的最后幸存者, 选择在无人打扰的洞穴中进入沉睡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尽管你无意主动挑起争端，但图谋不轨的入侵者挑动了你的危险神经。既然搅扰了你的沉眠，他们必须为此付出代价。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Although you have no intention of starting a conflict, the malicious invaders have triggered your sense of danger. Since they have disturbed your slumber, they must pay back for it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即使是拥有变化之力，曾被人类奉若神明的强大古老种族，也终究毁灭在无休止的争斗之中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Even with the power of transformation, the once-deified powerful ancient race, ultimately perished in the endless conflicts.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTRO_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_INTRO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTRO_2</t>
+  </si>
+  <si>
+    <t>INTRO_3</t>
+  </si>
+  <si>
+    <t>INTRO_4</t>
+  </si>
+  <si>
+    <t>_CHAPTER_0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并非每场梦境的结束都甜蜜而舒适，有些时候，打破它只需要一声响动，或是一位不速之客的到来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not every dream ends with satisfaction. Sometimes, it only takes a single sound or the arrival of an unexpected guest to shatter it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外头还有更多闯入者。活动一下筋骨，然后仔细回忆起你脑海里尘封千年的技巧和能力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There seem more intruders outside. Stretch your muscles, then carefully recall the skills and abilities that have been sealed in your mind for centuries.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_CHAPTER_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入侵者为了对付你还真是出动了不少人手。不用担心，用刚刚回忆起的战斗技巧狠狠教训他们一下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The intruders have truly mobilized quite a number of people to deal with you. Don't worry, use the combat skills you just recalled, teach them a harsh lesson.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAPTER_0_OP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAPTER_0_ED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAPTER_1_OP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苦战？恶战？对于刚刚苏醒的你，没什么能比这种热身更加有效的了，现在，该用尖牙和利爪撕碎外面更多的敌人了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAPTER_1_ED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">No matter it is tough or fierce, nothing is better than a fight for just-awakened you to warm up. Fangs and claws are now completely ready for a bloody feast. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_CHAPTER_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你也能够感觉到，一股肮脏的风随着这些不请自来的客人一道流进了地下。这阴损的感觉中带着更深的恶意，仿佛一根刺入皮肤的钢针。他们在窥视，在寻找的，到底是什么呢。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAPTER_2_OP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You can also feel it—a foul wind flowing into the underground along with these uninvited guests. This sinister sensation hides a deeper stinging malice. What exactly are they spying on and searching for?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAPTER_2_ED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这些贪婪而愚蠢的弱小种族竟然视洞穴中的古代遗珍若无物。也许这洞穴中埋藏的众多珍宝之中，你才是对他们最有价值的那一个。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>These greedy and foolish weak races actually treat the ancient relics in the cave as nothing. Perhaps, among the many treasures buried in this cave, you are the most valuable one to them.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_CHAPTER_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类并不明白自己面对的是何种存在，忘却了掩埋在历史中的恐惧。傲慢、无知、贪婪，将成为这些家伙的墓志铭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总有人想探寻未知，靠掠夺，靠窃取，或是靠屠戮，但是他们所渴望的禁忌知识，也许最终会转变成他们最深刻的恐惧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Humans do not understand what kind of existence they are facing, having forgotten the fear buried in history. Arrogance, ignorance, and greed will become the epitaphs of these fools.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Some are always eager to explore the unknown, through plunder, theft, or slaughter. But the forbidden knowledge they seek may ultimately turn into their deepest fear.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAPTER_3_OP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAPTER_3_ED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_ED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"I heard that, the monster in this cave can transform into a shape, with three giant mouths filled with sharp fangs, seventeen claws that can slice through steel like paper, and silently ambush victims like a snake..."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的恐怖声名在洞穴外的入侵者营地中大肆流传。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“我听说，这洞窟里的怪物，能变化出三个长满尖牙的巨口，十七只削铁如泥的利爪，像蛇一样无声息地伏杀遇难者…”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your terrifying reputation spreads widely among the invaders' camp outside the cave.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当你踏出洞穴的那一刻，这些懦夫吓得丢盔弃甲，头也不回地四散逃去。即使一个衣着华贵的家伙在营地大声喝令，他们也不管不顾。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The moment you step out of the cave, these cowards are so frightened that they throw away their items, fleeing in all directions without looking back. Even though a lavishly dressed figure shouts orders in the camp, they ignore him completely.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ED_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ED_2</t>
+  </si>
+  <si>
+    <t>ED_3</t>
+  </si>
+  <si>
+    <t>Wounded gravely and aimlessly, you, the last survivor of your kind, choosed to enter a deep sleep in a cave undisturbed by anyone.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,7 +619,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,6 +633,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -461,7 +668,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -470,6 +677,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -754,7 +967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
@@ -1181,4 +1394,233 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F76506E-6B2F-4406-A571-E640D66A3B87}">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="66.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="61" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/translation_ws/translation_sheet.xlsx
+++ b/translation_ws/translation_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BaiduNetdiskDownload\prj\translation_ws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E57F897-E319-4C3D-B521-6484CA6C6DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771D60F9-CB83-41D0-B274-A5E7A991DA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unit_description" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="176">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -612,6 +612,124 @@
   </si>
   <si>
     <t>Wounded gravely and aimlessly, you, the last survivor of your kind, choosed to enter a deep sleep in a cave undisturbed by anyone.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_DEFAUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHOOSE_LANG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choose Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONFIRM_LANG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Unit -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 单位 -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Action -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 行动 -</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choose Your Form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择你的形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Choose Your Action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择你的行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rewind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VICTORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go Next</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFEATED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜  利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失  败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Retry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ED_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">*** YOU WIN ***
+Finally, you've expelled all the intruders. 
+Either to adventure in this brand new world, or to continue your centurial old dreams, 
+now you enjoy a free future. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*** 胜利! ***
+终于，你驱逐了所有入侵者。
+不管是选择探索这个崭新的世界，还是回归你的古老梦境，
+未来尽在你掌握之中。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1398,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F76506E-6B2F-4406-A571-E640D66A3B87}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1618,6 +1736,143 @@
         <v>142</v>
       </c>
     </row>
+    <row r="23" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/translation_ws/translation_sheet.xlsx
+++ b/translation_ws/translation_sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BaiduNetdiskDownload\prj\translation_ws\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771D60F9-CB83-41D0-B274-A5E7A991DA33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE313799-DBB7-41DB-919A-33D28A04B283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unit_description" sheetId="1" r:id="rId1"/>
@@ -402,12 +402,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拟态魔、换形怪、窃皮者，世间对你有着众多称呼。
-你的故事流传于不同民族与不同地区的人群之中，诉说着潜藏在暗影里的阴谋。父母用你来吓唬调皮的孩子，亡命之徒将你视作赏金的目标，疯人相信你代表着死亡与屠戮，但更多的人，则只将你当作是一句过于幼稚的玩笑. 
-但只有极少数人知晓，在所有这些虚妄之言的背后，你，是何种千变万化的存在。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mimic demons, shape-shifters, skin thieves...Your names vary and spreads all over the world, telling of the hidden conspiracies. Parents use you to frighten mischievous children, outlaws see you as exchange for bounty, the mad believe you bringer of the end, but most people simply dismiss you as a fiction. But only a very few know the truth—that behind all these false tales, you are an existence of endless transformation.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -730,6 +724,12 @@
 终于，你驱逐了所有入侵者。
 不管是选择探索这个崭新的世界，还是回归你的古老梦境，
 未来尽在你掌握之中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拟态魔、换形怪、窃皮者，世间对你有着众多称呼。
+你的故事流传于不同民族与不同地区的人群之中，诉说着潜藏在暗影里的阴谋。父母用你来吓唬调皮的孩子，亡命之徒将你视作赏金的目标，疯人相信你代表着死亡与屠戮，但更多的人，则只将你当作是一句过于幼稚的玩笑。
+但只有极少数人知晓，在所有这些虚妄之言的背后，你，是何种千变万化的存在。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1343,10 +1343,10 @@
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -1370,7 +1370,7 @@
         <v>30</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>69</v>
@@ -1518,7 +1518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F76506E-6B2F-4406-A571-E640D66A3B87}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1543,334 +1543,334 @@
     </row>
     <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="C12" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="C14" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="66" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
